--- a/biology/Biochimie/Pompe_proton-potassium/Pompe_proton-potassium.xlsx
+++ b/biology/Biochimie/Pompe_proton-potassium/Pompe_proton-potassium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pompe proton-potassium est une enzyme transmembranaire. Il s´agit d´une ATPase de type « P antiport » (tout comme la pompe sodium-potassium) électroneutre (sortie d'un H+, entrée d'un K+).
 Elle possède 10 segments transmembranaires, dont un est utilisé pour transférer un phosphate d'une molécule d'ATP, à un acide aspartique, pour former du Bêta Aspartyl phosphate, qui sera alors utilisé comme carburant. Elle contient des unités Bêta, dont une est glycosylée afin de guider le transport des ions.
